--- a/biology/Médecine/Inversion_utérine/Inversion_utérine.xlsx
+++ b/biology/Médecine/Inversion_utérine/Inversion_utérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inversion_ut%C3%A9rine</t>
+          <t>Inversion_utérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une inversion utérine est une complication de l'accouchement potentiellement fatale, avec un taux de survie maternel d'environ 85%. Elle se produit lorsque le placenta ne parvient pas à se détacher de l'utérus lors de sa sortie ; il tire alors sur sa surface interne et le retourne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inversion_ut%C3%A9rine</t>
+          <t>Inversion_utérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause la plus courante est une mauvaise gestion de la 3e phase du travail d'accouchement, avec par exemple une expression abdominale ou une traction excessive sur le cordon ombilical.
 Les autres causes naturelles peuvent être :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inversion_ut%C3%A9rine</t>
+          <t>Inversion_utérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1 : Retournement complet, visible au-delà du col de l'utérus.
-2: Retournement incomplet, visible seulement au niveau du col de l'utérus[1].</t>
+2: Retournement incomplet, visible seulement au niveau du col de l'utérus.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inversion_ut%C3%A9rine</t>
+          <t>Inversion_utérine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Complications associées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Placenta praevia
 Implantation du placenta au fond de l'utérus
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inversion_ut%C3%A9rine</t>
+          <t>Inversion_utérine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inversion utérine est souvent associée à une importante hémorragie de la délivrance. On pensait traditionnellement que le choc hémodynamique était disproportionné par rapport à la perte de sang ; toutefois, cette perte a souvent été sous-estimée. L'effet parasympathique de la traction sur les ligaments utérins peut provoquer une bradycardie.
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inversion_ut%C3%A9rine</t>
+          <t>Inversion_utérine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe général de gestion est de traiter le collapsus et de repositionner l'utérus. La patiente devrait être rapidement emmenée au bloc opératoire pour faciliter le monitoring de l'anesthésie durant la procédure. Il s'agit d'une véritable urgence obstétricale, nécessitant la présence de médecins, infirmières et anesthésistes supplémentaires.
 En général, cette complication n'est reconnue qu'après la délivrance du placenta, et donc après la mise sous ocytocine de la patiente, qui ne fait qu'exacerber le problème. L'utérus se contracte autour de l'inversion, rendant son repositionnement très difficile.  Il faut immédiatement arrêter la perfusion d'ocytocine. La prise de tocolytiques comme la terbutaline ou le sulfate de magnésium a peu de succès, moins que la prise d'Halothane et de nitroglycérine (100 μg à 200 μg en intraveineuse).
